--- a/agents/CCPP/CCPP-Data-Contents.xlsx
+++ b/agents/CCPP/CCPP-Data-Contents.xlsx
@@ -51,16 +51,16 @@
     <t xml:space="preserve">sub-title</t>
   </si>
   <si>
-    <t xml:space="preserve">Based on official disease reports to the OIE</t>
+    <t xml:space="preserve">Based on official disease reports to the WOAH</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">CCPP is a disease listed in the World Organisation for Animal Health ({ref009:OIE}) Terrestrial Animal Health Code and must be reported to the OIE. The map to the right displays outbreak points reported to the OIE early warning system since 2005.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As described in the OIE {ref005:Terrestrial Animal Health Code}, the OIE early warning system includes immediate notifications and follow-up reports on:</t>
+    <t xml:space="preserve">CCPP is a disease listed in the World Organisation for Animal Health ({ref009:WOAH}) Terrestrial Animal Health Code and must be reported to the WOAH. The map to the right displays outbreak points reported to the WOAH early warning system since 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As described in the WOAH {ref005:Terrestrial Animal Health Code}, the WOAH early warning system includes immediate notifications and follow-up reports on:</t>
   </si>
   <si>
     <t xml:space="preserve">list</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Occurrence of a listed disease in an unusual host species.</t>
   </si>
   <si>
-    <t xml:space="preserve">Countries are coloured according to the available information regarding their stable disease situation (disease status legend). This information is provided by countries through the OIE monitoring system, which is a different reporting channel.&lt;br&gt;Immediate notifications (points) and disease status (country/region colours) are reported to the OIE in different spatial and temporal scales, and therefore are displayed in the map as layers which can be filtered independently.</t>
+    <t xml:space="preserve">Countries are coloured according to the available information regarding their stable disease situation (disease status legend). This information is provided by countries through the WOAH monitoring system, which is a different reporting channel.&lt;br&gt;Immediate notifications (points) and disease status (country/region colours) are reported to the WOAH in different spatial and temporal scales, and therefore are displayed in the map as layers which can be filtered independently.</t>
   </si>
   <si>
     <t xml:space="preserve">annotation</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:OIE-WAHIS}.</t>
+    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:WOAH-WAHIS}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">Animal Health Impact</t>
   </si>
   <si>
-    <t xml:space="preserve">A summary of the disease in animal hosts is given in the {ref008:OIE Technical disease card}.</t>
+    <t xml:space="preserve">A summary of the disease in animal hosts is given in the {ref008:WOAH Technical disease card}.</t>
   </si>
   <si>
     <t xml:space="preserve">The panel to the right summarizes all evidence collected by EFSA from published experimental infection studies describing the health effects of this pathogen in host animal species. Scroll down through the content.</t>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">Public Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Humans are not susceptible,  and therefore there is no direct impact on public health ({ref008:OIE Technical disease card}).</t>
+    <t xml:space="preserve">Humans are not susceptible,  and therefore there is no direct impact on public health ({ref008:WOAH Technical disease card}).</t>
   </si>
   <si>
     <t xml:space="preserve">HTML file</t>
@@ -174,7 +174,7 @@
     <t xml:space="preserve">Agent characteristics</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to the {ref008:OIE Technical disease card} for a key summary of the bacterium characteristics. </t>
+    <t xml:space="preserve">Refer to the {ref008:WOAH Technical disease card} for a key summary of the bacterium characteristics. </t>
   </si>
   <si>
     <t xml:space="preserve">Bacteria survival outside living hosts </t>
@@ -213,7 +213,7 @@
     <t xml:space="preserve">Transmission</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to the {ref008:OIE Technical disease card} for a key summary of the disease transmission and epidemiological parameters.</t>
+    <t xml:space="preserve">Refer to the {ref008:WOAH Technical disease card} for a key summary of the disease transmission and epidemiological parameters.</t>
   </si>
   <si>
     <t xml:space="preserve">The panel to the right summarizes all evidence collected by EFSA from published experimental infection studies describing host infectiousness. Scroll down through the content.</t>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-prescribed tests for international trade include:the commercial competitive enzyme-linked immunosorbent assay (ELISA) and in-house indirect ELISA ({ref010:OIE, Terrestrial Manual})</t>
+    <t xml:space="preserve">WOAH-prescribed tests for international trade include:the commercial competitive enzyme-linked immunosorbent assay (ELISA) and in-house indirect ELISA ({ref010:WOAH, Terrestrial Manual})</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">The CoVetLab consortium has been responsible for the systematic literature reviews since 2015, and has delivered story maps to EFSA since 2021. Partners are: Swedish National Veterinary Institute (SVA, Sweden); Wageningen Bioveterinary Research (WBVR, The Netherlands); Animal and Plant Health Agency (APHA; UK) and the University of Surrey (UK). </t>
   </si>
   <si>
-    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (OIE). {ref001:OIE-WAHIS} (OIE World Animal Health Information System) is the original source of these data.</t>
+    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (WOAH). {ref001:WOAH-WAHIS} (WOAH World Animal Health Information System) is the original source of these data.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA thanks the following experts for their specific contribution to this story map:</t>
@@ -376,7 +376,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -412,7 +412,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health) Technical Disease Card: Contagious caprine pleuropneumonia, 2009</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health) Technical Disease Card: Contagious caprine pleuropneumonia, 2009</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Animal_Health_in_the_World/docs/pdf/Disease_cards/CONTAGIOUS_CAPRINE_PLEURO.pdf</t>
@@ -448,7 +448,7 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Contagious caprine pleuropneumonia. Chapter 14.3. OIE Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Contagious caprine pleuropneumonia. Chapter 14.3. WOAH Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahc/current/chapitre_ccpp.pdf</t>
@@ -457,7 +457,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Contagious caprine pleuropneumonia. Chapter 3.08.04. OIE Terrestrial Manual 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Contagious caprine pleuropneumonia. Chapter 3.08.04. WOAH Terrestrial Manual 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.08.04_CCPP.pdf</t>

--- a/agents/CCPP/CCPP-Data-Contents.xlsx
+++ b/agents/CCPP/CCPP-Data-Contents.xlsx
@@ -141,7 +141,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-CCPP.html</t>
+    <t xml:space="preserve">ExperimentalInfections-CCPP.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -204,7 +204,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-CCPP.html</t>
@@ -264,7 +264,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-CCPP.html</t>

--- a/agents/CCPP/CCPP-Data-Contents.xlsx
+++ b/agents/CCPP/CCPP-Data-Contents.xlsx
@@ -207,7 +207,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-CCPP.html</t>
+    <t xml:space="preserve">PathogenSurvival-CCPP.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/CCPP/CCPP-Data-Contents.xlsx
+++ b/agents/CCPP/CCPP-Data-Contents.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. The next update of the SLR for vaccines is scheduled to be carried out in 2023. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picture on the right: Congerdesign. Public domain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image_right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goats.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Treatments</t>
@@ -326,9 +335,6 @@
   </si>
   <si>
     <t xml:space="preserve">Expert name2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image_right</t>
   </si>
   <si>
     <t xml:space="preserve">covetlab.png</t>
@@ -2369,16 +2375,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E82" t="s">
         <v>88</v>
@@ -2386,19 +2392,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
@@ -2406,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -2415,7 +2421,7 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
@@ -2423,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="n">
         <v>3</v>
@@ -2432,89 +2438,89 @@
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B87" t="n">
         <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B89" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
         <v>9</v>
       </c>
       <c r="C90" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
         <v>97</v>
@@ -2522,16 +2528,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
         <v>98</v>
@@ -2539,41 +2545,41 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B92" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
         <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B94" t="n">
         <v>10</v>
@@ -2585,55 +2591,55 @@
         <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B95" t="n">
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B96" t="n">
         <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B97" t="n">
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
         <v>105</v>
@@ -2641,16 +2647,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E98" t="s">
         <v>106</v>
@@ -2658,16 +2664,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E99" t="s">
         <v>107</v>
@@ -2675,16 +2681,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
         <v>11</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
         <v>108</v>
@@ -2692,16 +2698,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B101" t="n">
         <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
         <v>109</v>
@@ -2709,16 +2715,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B102" t="n">
         <v>11</v>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
         <v>110</v>
@@ -2726,7 +2732,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B103" t="n">
         <v>11</v>
@@ -2743,7 +2749,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B104" t="n">
         <v>11</v>
@@ -2760,7 +2766,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B105" t="n">
         <v>11</v>
@@ -2777,7 +2783,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B106" t="n">
         <v>11</v>
@@ -2794,7 +2800,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B107" t="n">
         <v>11</v>
@@ -2807,6 +2813,40 @@
       </c>
       <c r="E107" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>9</v>
+      </c>
+      <c r="B108" t="n">
+        <v>11</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10</v>
+      </c>
+      <c r="B109" t="n">
+        <v>11</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2828,461 +2868,461 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/agents/CCPP/CCPP-Data-Contents.xlsx
+++ b/agents/CCPP/CCPP-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\CCPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\CCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAACFF1-FE4A-4361-955F-BD0D0392916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED223C2C-9C63-4F3F-8AF0-0C64A876E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3760" yWindow="8190" windowWidth="7230" windowHeight="3980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="224">
   <si>
     <t>ID</t>
   </si>
@@ -691,6 +691,9 @@
   </si>
   <si>
     <t>Disease-CCPP.html</t>
+  </si>
+  <si>
+    <t>Picture on the right:  International Livestock Research Institute (ILRI)/Yvane Marblé. CC-0</t>
   </si>
 </sst>
 </file>
@@ -1038,15 +1041,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>8</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>4</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>6</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>7</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>8</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>9</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>10</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>11</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>12</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>13</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>14</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>15</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>16</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>13</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>14</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>15</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>16</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11</v>
       </c>
@@ -2270,7 +2273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>11</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>12</v>
       </c>
@@ -2491,7 +2494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -2610,179 +2613,179 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B95">
         <v>9</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B96">
         <v>9</v>
       </c>
       <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98">
         <v>10</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D98" t="s">
         <v>45</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97">
-        <v>10</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>2</v>
-      </c>
-      <c r="B98">
-        <v>10</v>
-      </c>
-      <c r="C98">
-        <v>3</v>
-      </c>
-      <c r="D98" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B99">
         <v>10</v>
       </c>
       <c r="C99">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
         <v>99</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100">
-        <v>11</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>2</v>
-      </c>
-      <c r="B101">
-        <v>11</v>
-      </c>
-      <c r="C101">
-        <v>3</v>
-      </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B102">
         <v>11</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B103">
         <v>11</v>
@@ -2794,148 +2797,148 @@
         <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B104">
         <v>11</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B105">
         <v>11</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B106">
         <v>11</v>
       </c>
       <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>11</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
         <v>12</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D108" t="s">
         <v>89</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>12</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>2</v>
-      </c>
-      <c r="B108">
-        <v>12</v>
-      </c>
-      <c r="C108">
-        <v>3</v>
-      </c>
-      <c r="D108" t="s">
-        <v>13</v>
-      </c>
-      <c r="E108" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B109">
         <v>12</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B110">
         <v>12</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B111">
         <v>12</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B112">
         <v>12</v>
@@ -2947,12 +2950,12 @@
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B113">
         <v>12</v>
@@ -2964,12 +2967,12 @@
         <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B114">
         <v>12</v>
@@ -2981,12 +2984,12 @@
         <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B115">
         <v>12</v>
@@ -2998,12 +3001,12 @@
         <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B116">
         <v>12</v>
@@ -3015,6 +3018,40 @@
         <v>16</v>
       </c>
       <c r="E116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>9</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>10</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3030,9 +3067,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3046,7 +3083,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3060,7 +3097,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -3074,7 +3111,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -3088,7 +3125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -3102,7 +3139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -3116,7 +3153,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -3130,7 +3167,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -3144,7 +3181,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -3158,7 +3195,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>145</v>
       </c>
@@ -3172,7 +3209,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -3186,7 +3223,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>151</v>
       </c>
@@ -3200,7 +3237,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -3214,7 +3251,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -3228,7 +3265,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -3242,7 +3279,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -3256,7 +3293,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -3270,7 +3307,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -3284,7 +3321,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -3298,7 +3335,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -3312,7 +3349,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -3326,7 +3363,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>181</v>
       </c>
@@ -3340,7 +3377,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>184</v>
       </c>
@@ -3354,7 +3391,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>187</v>
       </c>
@@ -3368,7 +3405,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>190</v>
       </c>
@@ -3382,7 +3419,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>193</v>
       </c>
@@ -3396,7 +3433,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -3410,7 +3447,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>199</v>
       </c>
@@ -3424,7 +3461,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>202</v>
       </c>
@@ -3438,7 +3475,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -3452,7 +3489,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>208</v>
       </c>
@@ -3466,7 +3503,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>211</v>
       </c>
@@ -3480,7 +3517,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>214</v>
       </c>
